--- a/docs/username.xlsx
+++ b/docs/username.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="370">
   <si>
     <t>ID</t>
   </si>
@@ -384,9 +384,6 @@
     <t>0x56d65eef545a8faca2d1bd1070114383b25abfb5</t>
   </si>
   <si>
-    <t>0x86ffaad30d7df494483c330230071f334d12e770</t>
-  </si>
-  <si>
     <t>0x4e861ee1ea8a19ab663886f1f7edce36e31ec508</t>
   </si>
   <si>
@@ -1123,6 +1120,15 @@
   </si>
   <si>
     <t>0x346427af32140d160f93a0ba1fe36be63340ca33</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>0xFb87cf125aF82806703c15afef68dB4f993fEf74</t>
+  </si>
+  <si>
+    <t>0x6DeC9ACA72EF8375F34a4FF6628552Ab934b5AD3</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1264,7 +1270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1473,11 +1479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:E353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D464" sqref="D464"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1494,7 @@
     <col min="4" max="4" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,8 +1507,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>528</v>
       </c>
@@ -1515,8 +1524,11 @@
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>527</v>
       </c>
@@ -1529,8 +1541,11 @@
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>526</v>
       </c>
@@ -1543,8 +1558,11 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>525</v>
       </c>
@@ -1557,8 +1575,11 @@
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>524</v>
       </c>
@@ -1571,8 +1592,11 @@
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>523</v>
       </c>
@@ -1585,8 +1609,11 @@
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>522</v>
       </c>
@@ -1599,8 +1626,11 @@
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>521</v>
       </c>
@@ -1613,10 +1643,13 @@
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1625,26 +1658,32 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1653,26 +1692,32 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1681,40 +1726,49 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1723,40 +1777,49 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1765,12 +1828,15 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1779,26 +1845,32 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1807,12 +1879,15 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1821,12 +1896,15 @@
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1835,26 +1913,32 @@
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1863,26 +1947,32 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1891,26 +1981,32 @@
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -1919,12 +2015,15 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -1933,12 +2032,15 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1947,12 +2049,15 @@
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -1961,12 +2066,15 @@
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -1975,12 +2083,15 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -1989,26 +2100,32 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -2017,12 +2134,15 @@
         <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -2031,12 +2151,15 @@
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -2045,12 +2168,15 @@
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -2059,12 +2185,15 @@
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -2073,40 +2202,49 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -2115,12 +2253,15 @@
         <v>5</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
@@ -2129,26 +2270,32 @@
         <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -2157,12 +2304,15 @@
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -2171,12 +2321,15 @@
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -2185,40 +2338,49 @@
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
@@ -2227,12 +2389,15 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
@@ -2241,68 +2406,83 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
@@ -2311,12 +2491,15 @@
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
@@ -2325,12 +2508,15 @@
         <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
@@ -2339,12 +2525,15 @@
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
@@ -2353,12 +2542,15 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
@@ -2367,26 +2559,32 @@
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
@@ -2395,12 +2593,15 @@
         <v>6</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
@@ -2409,40 +2610,49 @@
         <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -2451,12 +2661,15 @@
         <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
@@ -2465,12 +2678,15 @@
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
@@ -2479,12 +2695,15 @@
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
@@ -2493,12 +2712,15 @@
         <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
@@ -2507,12 +2729,15 @@
         <v>6</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
@@ -2521,12 +2746,15 @@
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
@@ -2535,12 +2763,15 @@
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -2549,54 +2780,66 @@
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -2605,26 +2848,32 @@
         <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -2633,12 +2882,15 @@
         <v>5</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
@@ -2647,26 +2899,32 @@
         <v>5</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -2675,12 +2933,15 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
@@ -2689,12 +2950,15 @@
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
@@ -2703,26 +2967,32 @@
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
@@ -2731,26 +3001,32 @@
         <v>5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
@@ -2759,12 +3035,15 @@
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
@@ -2773,40 +3052,49 @@
         <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
@@ -2815,12 +3103,15 @@
         <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
@@ -2831,10 +3122,13 @@
       <c r="D96" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
@@ -2843,12 +3137,15 @@
         <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
@@ -2857,12 +3154,15 @@
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
@@ -2871,12 +3171,15 @@
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
@@ -2885,12 +3188,15 @@
         <v>6</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
@@ -2899,12 +3205,15 @@
         <v>6</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
@@ -2913,12 +3222,15 @@
         <v>6</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
@@ -2927,12 +3239,15 @@
         <v>6</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
@@ -2941,12 +3256,15 @@
         <v>6</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
@@ -2955,12 +3273,15 @@
         <v>6</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
@@ -2969,12 +3290,15 @@
         <v>6</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
@@ -2983,12 +3307,15 @@
         <v>6</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
@@ -2997,26 +3324,32 @@
         <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
@@ -3025,26 +3358,32 @@
         <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
@@ -3053,12 +3392,15 @@
         <v>6</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
@@ -3067,12 +3409,15 @@
         <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
@@ -3081,12 +3426,15 @@
         <v>6</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
@@ -3097,52 +3445,64 @@
       <c r="D115" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B118" t="s">
         <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B119" t="s">
         <v>18</v>
@@ -3151,12 +3511,15 @@
         <v>6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B120" t="s">
         <v>18</v>
@@ -3165,12 +3528,15 @@
         <v>6</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B121" t="s">
         <v>18</v>
@@ -3179,26 +3545,32 @@
         <v>6</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B122" t="s">
         <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B123" t="s">
         <v>18</v>
@@ -3207,26 +3579,32 @@
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B124" t="s">
         <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B125" t="s">
         <v>18</v>
@@ -3235,12 +3613,15 @@
         <v>6</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
@@ -3249,12 +3630,15 @@
         <v>6</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B127" t="s">
         <v>18</v>
@@ -3265,10 +3649,13 @@
       <c r="D127" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B128" t="s">
         <v>18</v>
@@ -3277,12 +3664,15 @@
         <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B129" t="s">
         <v>18</v>
@@ -3291,26 +3681,32 @@
         <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B130" t="s">
         <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B131" t="s">
         <v>18</v>
@@ -3319,26 +3715,32 @@
         <v>6</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B132" t="s">
         <v>18</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s">
         <v>18</v>
@@ -3347,54 +3749,66 @@
         <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B134" t="s">
         <v>18</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B137" t="s">
         <v>19</v>
@@ -3403,12 +3817,15 @@
         <v>6</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B138" t="s">
         <v>19</v>
@@ -3417,26 +3834,32 @@
         <v>6</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B139" t="s">
         <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B140" t="s">
         <v>19</v>
@@ -3445,26 +3868,32 @@
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B141" t="s">
         <v>19</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B142" t="s">
         <v>19</v>
@@ -3473,12 +3902,15 @@
         <v>6</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B143" t="s">
         <v>19</v>
@@ -3487,12 +3919,15 @@
         <v>6</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B144" t="s">
         <v>19</v>
@@ -3501,12 +3936,15 @@
         <v>6</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B145" t="s">
         <v>19</v>
@@ -3515,12 +3953,15 @@
         <v>6</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B146" t="s">
         <v>19</v>
@@ -3529,12 +3970,15 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B147" t="s">
         <v>19</v>
@@ -3543,12 +3987,15 @@
         <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B148" t="s">
         <v>19</v>
@@ -3557,12 +4004,15 @@
         <v>6</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B149" t="s">
         <v>19</v>
@@ -3571,12 +4021,15 @@
         <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B150" t="s">
         <v>19</v>
@@ -3585,12 +4038,15 @@
         <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B151" t="s">
         <v>19</v>
@@ -3599,12 +4055,15 @@
         <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B152" t="s">
         <v>19</v>
@@ -3613,12 +4072,15 @@
         <v>6</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B153" t="s">
         <v>19</v>
@@ -3627,12 +4089,15 @@
         <v>6</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B154" t="s">
         <v>19</v>
@@ -3641,12 +4106,15 @@
         <v>6</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B155" t="s">
         <v>19</v>
@@ -3655,12 +4123,15 @@
         <v>6</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B156" t="s">
         <v>19</v>
@@ -3669,26 +4140,32 @@
         <v>6</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B157" t="s">
         <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B158" t="s">
         <v>19</v>
@@ -3697,26 +4174,32 @@
         <v>6</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B159" t="s">
         <v>19</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B160" t="s">
         <v>19</v>
@@ -3725,12 +4208,15 @@
         <v>6</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B161" t="s">
         <v>19</v>
@@ -3739,40 +4225,49 @@
         <v>6</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B162" t="s">
         <v>19</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B163" t="s">
         <v>19</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B164" t="s">
         <v>19</v>
@@ -3781,40 +4276,49 @@
         <v>5</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B165" t="s">
         <v>19</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B166" t="s">
         <v>19</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B167" t="s">
         <v>19</v>
@@ -3823,12 +4327,15 @@
         <v>6</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B168" t="s">
         <v>19</v>
@@ -3837,40 +4344,49 @@
         <v>6</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B170" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B171" t="s">
         <v>22</v>
@@ -3879,26 +4395,32 @@
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B172" t="s">
         <v>22</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
@@ -3907,40 +4429,49 @@
         <v>5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B174" t="s">
         <v>22</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B175" t="s">
         <v>22</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B176" t="s">
         <v>22</v>
@@ -3949,26 +4480,32 @@
         <v>6</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B178" t="s">
         <v>22</v>
@@ -3977,12 +4514,15 @@
         <v>6</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B179" t="s">
         <v>22</v>
@@ -3991,40 +4531,49 @@
         <v>5</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B180" t="s">
         <v>22</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B181" t="s">
         <v>22</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B182" t="s">
         <v>22</v>
@@ -4033,12 +4582,15 @@
         <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B183" t="s">
         <v>22</v>
@@ -4047,26 +4599,32 @@
         <v>6</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B184" t="s">
         <v>22</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
@@ -4075,12 +4633,15 @@
         <v>6</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B186" t="s">
         <v>22</v>
@@ -4089,12 +4650,15 @@
         <v>6</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B187" t="s">
         <v>22</v>
@@ -4103,12 +4667,15 @@
         <v>6</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B188" t="s">
         <v>22</v>
@@ -4117,12 +4684,15 @@
         <v>6</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B189" t="s">
         <v>22</v>
@@ -4131,68 +4701,83 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B190" t="s">
         <v>22</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B191" t="s">
         <v>22</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B192" t="s">
         <v>22</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B193" t="s">
         <v>22</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B194" t="s">
         <v>22</v>
@@ -4201,12 +4786,15 @@
         <v>6</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B195" t="s">
         <v>22</v>
@@ -4215,12 +4803,15 @@
         <v>6</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B196" t="s">
         <v>22</v>
@@ -4229,12 +4820,15 @@
         <v>6</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B197" t="s">
         <v>22</v>
@@ -4243,12 +4837,15 @@
         <v>6</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B198" t="s">
         <v>22</v>
@@ -4257,26 +4854,32 @@
         <v>6</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B199" t="s">
         <v>22</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B200" t="s">
         <v>22</v>
@@ -4285,26 +4888,32 @@
         <v>6</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B201" t="s">
         <v>22</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B202" t="s">
         <v>22</v>
@@ -4313,12 +4922,15 @@
         <v>6</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B203" t="s">
         <v>22</v>
@@ -4327,12 +4939,15 @@
         <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B204" t="s">
         <v>22</v>
@@ -4341,12 +4956,15 @@
         <v>6</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
@@ -4355,390 +4973,474 @@
         <v>6</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B206" t="s">
         <v>22</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B207" t="s">
         <v>22</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B208" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>319</v>
+      </c>
+      <c r="B209" t="s">
+        <v>24</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>318</v>
+      </c>
+      <c r="B210" t="s">
+        <v>24</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>317</v>
+      </c>
+      <c r="B211" t="s">
+        <v>24</v>
+      </c>
+      <c r="C211" t="s">
         <v>5</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>321</v>
-      </c>
-      <c r="B209" t="s">
-        <v>22</v>
-      </c>
-      <c r="C209" t="s">
+      <c r="D211" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>316</v>
+      </c>
+      <c r="B212" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>315</v>
+      </c>
+      <c r="B213" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>314</v>
+      </c>
+      <c r="B214" t="s">
+        <v>24</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>313</v>
+      </c>
+      <c r="B215" t="s">
+        <v>24</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>312</v>
+      </c>
+      <c r="B216" t="s">
+        <v>24</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>311</v>
+      </c>
+      <c r="B217" t="s">
+        <v>24</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>310</v>
+      </c>
+      <c r="B218" t="s">
+        <v>24</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>309</v>
+      </c>
+      <c r="B219" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>308</v>
+      </c>
+      <c r="B220" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>307</v>
+      </c>
+      <c r="B221" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>306</v>
+      </c>
+      <c r="B222" t="s">
+        <v>24</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>305</v>
+      </c>
+      <c r="B223" t="s">
+        <v>24</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>304</v>
+      </c>
+      <c r="B224" t="s">
+        <v>24</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>303</v>
+      </c>
+      <c r="B225" t="s">
+        <v>24</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>302</v>
+      </c>
+      <c r="B226" t="s">
+        <v>24</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>301</v>
+      </c>
+      <c r="B227" t="s">
+        <v>24</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>300</v>
+      </c>
+      <c r="B228" t="s">
+        <v>24</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>299</v>
+      </c>
+      <c r="B229" t="s">
+        <v>24</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>298</v>
+      </c>
+      <c r="B230" t="s">
+        <v>24</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>297</v>
+      </c>
+      <c r="B231" t="s">
+        <v>24</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>296</v>
+      </c>
+      <c r="B232" t="s">
+        <v>24</v>
+      </c>
+      <c r="C232" t="s">
         <v>5</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>320</v>
-      </c>
-      <c r="B210" t="s">
-        <v>24</v>
-      </c>
-      <c r="C210" t="s">
-        <v>6</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>319</v>
-      </c>
-      <c r="B211" t="s">
-        <v>24</v>
-      </c>
-      <c r="C211" t="s">
-        <v>6</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>318</v>
-      </c>
-      <c r="B212" t="s">
-        <v>24</v>
-      </c>
-      <c r="C212" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>317</v>
-      </c>
-      <c r="B213" t="s">
-        <v>24</v>
-      </c>
-      <c r="C213" t="s">
-        <v>5</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>316</v>
-      </c>
-      <c r="B214" t="s">
-        <v>24</v>
-      </c>
-      <c r="C214" t="s">
-        <v>6</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>315</v>
-      </c>
-      <c r="B215" t="s">
-        <v>24</v>
-      </c>
-      <c r="C215" t="s">
-        <v>6</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>314</v>
-      </c>
-      <c r="B216" t="s">
-        <v>24</v>
-      </c>
-      <c r="C216" t="s">
-        <v>6</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>313</v>
-      </c>
-      <c r="B217" t="s">
-        <v>24</v>
-      </c>
-      <c r="C217" t="s">
-        <v>6</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>312</v>
-      </c>
-      <c r="B218" t="s">
-        <v>24</v>
-      </c>
-      <c r="C218" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>311</v>
-      </c>
-      <c r="B219" t="s">
-        <v>24</v>
-      </c>
-      <c r="C219" t="s">
-        <v>6</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>310</v>
-      </c>
-      <c r="B220" t="s">
-        <v>24</v>
-      </c>
-      <c r="C220" t="s">
-        <v>6</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>309</v>
-      </c>
-      <c r="B221" t="s">
-        <v>24</v>
-      </c>
-      <c r="C221" t="s">
-        <v>6</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>308</v>
-      </c>
-      <c r="B222" t="s">
-        <v>24</v>
-      </c>
-      <c r="C222" t="s">
-        <v>6</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>307</v>
-      </c>
-      <c r="B223" t="s">
-        <v>24</v>
-      </c>
-      <c r="C223" t="s">
-        <v>6</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>306</v>
-      </c>
-      <c r="B224" t="s">
-        <v>24</v>
-      </c>
-      <c r="C224" t="s">
-        <v>6</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>305</v>
-      </c>
-      <c r="B225" t="s">
-        <v>24</v>
-      </c>
-      <c r="C225" t="s">
-        <v>6</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>304</v>
-      </c>
-      <c r="B226" t="s">
-        <v>24</v>
-      </c>
-      <c r="C226" t="s">
-        <v>6</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>303</v>
-      </c>
-      <c r="B227" t="s">
-        <v>24</v>
-      </c>
-      <c r="C227" t="s">
-        <v>6</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>302</v>
-      </c>
-      <c r="B228" t="s">
-        <v>24</v>
-      </c>
-      <c r="C228" t="s">
-        <v>6</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>301</v>
-      </c>
-      <c r="B229" t="s">
-        <v>24</v>
-      </c>
-      <c r="C229" t="s">
-        <v>6</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>300</v>
-      </c>
-      <c r="B230" t="s">
-        <v>24</v>
-      </c>
-      <c r="C230" t="s">
-        <v>6</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>299</v>
-      </c>
-      <c r="B231" t="s">
-        <v>24</v>
-      </c>
-      <c r="C231" t="s">
-        <v>6</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>298</v>
-      </c>
-      <c r="B232" t="s">
-        <v>24</v>
-      </c>
-      <c r="C232" t="s">
-        <v>6</v>
-      </c>
       <c r="D232" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B233" t="s">
         <v>24</v>
@@ -4747,12 +5449,15 @@
         <v>6</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B234" t="s">
         <v>24</v>
@@ -4763,38 +5468,47 @@
       <c r="D234" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B235" t="s">
         <v>24</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B236" t="s">
         <v>24</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B237" t="s">
         <v>24</v>
@@ -4803,12 +5517,15 @@
         <v>5</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B238" t="s">
         <v>24</v>
@@ -4817,26 +5534,32 @@
         <v>6</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B239" t="s">
         <v>24</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B240" t="s">
         <v>24</v>
@@ -4847,10 +5570,13 @@
       <c r="D240" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B241" t="s">
         <v>24</v>
@@ -4859,12 +5585,15 @@
         <v>6</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B242" t="s">
         <v>24</v>
@@ -4875,10 +5604,13 @@
       <c r="D242" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B243" t="s">
         <v>24</v>
@@ -4887,12 +5619,15 @@
         <v>6</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B244" t="s">
         <v>24</v>
@@ -4901,12 +5636,15 @@
         <v>6</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B245" t="s">
         <v>24</v>
@@ -4915,26 +5653,32 @@
         <v>6</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B246" t="s">
         <v>24</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B247" t="s">
         <v>24</v>
@@ -4943,12 +5687,15 @@
         <v>6</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B248" t="s">
         <v>24</v>
@@ -4957,348 +5704,423 @@
         <v>5</v>
       </c>
       <c r="D248" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>279</v>
+      </c>
+      <c r="B249" t="s">
+        <v>24</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>278</v>
+      </c>
+      <c r="B250" t="s">
+        <v>24</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>277</v>
+      </c>
+      <c r="B251" t="s">
+        <v>24</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>276</v>
+      </c>
+      <c r="B252" t="s">
+        <v>24</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>275</v>
+      </c>
+      <c r="B253" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>274</v>
+      </c>
+      <c r="B254" t="s">
+        <v>24</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>273</v>
+      </c>
+      <c r="B255" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>272</v>
+      </c>
+      <c r="B256" t="s">
+        <v>24</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>271</v>
+      </c>
+      <c r="B257" t="s">
+        <v>24</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>270</v>
+      </c>
+      <c r="B258" t="s">
+        <v>24</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>269</v>
+      </c>
+      <c r="B259" t="s">
+        <v>24</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>268</v>
+      </c>
+      <c r="B260" t="s">
+        <v>24</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
         <v>267</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="B261" t="s">
+        <v>24</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B249" t="s">
-        <v>24</v>
-      </c>
-      <c r="C249" t="s">
-        <v>6</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>280</v>
-      </c>
-      <c r="B250" t="s">
-        <v>24</v>
-      </c>
-      <c r="C250" t="s">
+      <c r="E261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>266</v>
+      </c>
+      <c r="B262" t="s">
+        <v>24</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>265</v>
+      </c>
+      <c r="B263" t="s">
+        <v>24</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>264</v>
+      </c>
+      <c r="B264" t="s">
+        <v>24</v>
+      </c>
+      <c r="C264" t="s">
         <v>5</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>279</v>
-      </c>
-      <c r="B251" t="s">
-        <v>24</v>
-      </c>
-      <c r="C251" t="s">
+      <c r="D264" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>24</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>262</v>
+      </c>
+      <c r="B266" t="s">
+        <v>24</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>261</v>
+      </c>
+      <c r="B267" t="s">
+        <v>24</v>
+      </c>
+      <c r="C267" t="s">
         <v>5</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>278</v>
-      </c>
-      <c r="B252" t="s">
-        <v>24</v>
-      </c>
-      <c r="C252" t="s">
-        <v>6</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>277</v>
-      </c>
-      <c r="B253" t="s">
-        <v>24</v>
-      </c>
-      <c r="C253" t="s">
-        <v>6</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>276</v>
-      </c>
-      <c r="B254" t="s">
-        <v>24</v>
-      </c>
-      <c r="C254" t="s">
-        <v>6</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>275</v>
-      </c>
-      <c r="B255" t="s">
-        <v>24</v>
-      </c>
-      <c r="C255" t="s">
-        <v>6</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>274</v>
-      </c>
-      <c r="B256" t="s">
-        <v>24</v>
-      </c>
-      <c r="C256" t="s">
-        <v>6</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>273</v>
-      </c>
-      <c r="B257" t="s">
-        <v>24</v>
-      </c>
-      <c r="C257" t="s">
-        <v>6</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>272</v>
-      </c>
-      <c r="B258" t="s">
-        <v>24</v>
-      </c>
-      <c r="C258" t="s">
-        <v>6</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>271</v>
-      </c>
-      <c r="B259" t="s">
-        <v>24</v>
-      </c>
-      <c r="C259" t="s">
-        <v>6</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>270</v>
-      </c>
-      <c r="B260" t="s">
-        <v>24</v>
-      </c>
-      <c r="C260" t="s">
+      <c r="D267" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>260</v>
+      </c>
+      <c r="B268" t="s">
+        <v>24</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>259</v>
+      </c>
+      <c r="B269" t="s">
+        <v>24</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>258</v>
+      </c>
+      <c r="B270" t="s">
+        <v>24</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>257</v>
+      </c>
+      <c r="B271" t="s">
+        <v>24</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>256</v>
+      </c>
+      <c r="B272" t="s">
+        <v>24</v>
+      </c>
+      <c r="C272" t="s">
         <v>5</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>269</v>
-      </c>
-      <c r="B261" t="s">
-        <v>24</v>
-      </c>
-      <c r="C261" t="s">
-        <v>6</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>268</v>
-      </c>
-      <c r="B262" t="s">
-        <v>24</v>
-      </c>
-      <c r="C262" t="s">
-        <v>6</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>267</v>
-      </c>
-      <c r="B263" t="s">
-        <v>24</v>
-      </c>
-      <c r="C263" t="s">
-        <v>6</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>266</v>
-      </c>
-      <c r="B264" t="s">
-        <v>24</v>
-      </c>
-      <c r="C264" t="s">
-        <v>6</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>265</v>
-      </c>
-      <c r="B265" t="s">
-        <v>24</v>
-      </c>
-      <c r="C265" t="s">
-        <v>6</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>264</v>
-      </c>
-      <c r="B266" t="s">
-        <v>24</v>
-      </c>
-      <c r="C266" t="s">
-        <v>5</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>263</v>
-      </c>
-      <c r="B267" t="s">
-        <v>24</v>
-      </c>
-      <c r="C267" t="s">
-        <v>6</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>262</v>
-      </c>
-      <c r="B268" t="s">
-        <v>24</v>
-      </c>
-      <c r="C268" t="s">
-        <v>6</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>261</v>
-      </c>
-      <c r="B269" t="s">
-        <v>24</v>
-      </c>
-      <c r="C269" t="s">
-        <v>5</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>260</v>
-      </c>
-      <c r="B270" t="s">
-        <v>24</v>
-      </c>
-      <c r="C270" t="s">
-        <v>6</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>259</v>
-      </c>
-      <c r="B271" t="s">
-        <v>24</v>
-      </c>
-      <c r="C271" t="s">
-        <v>6</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>258</v>
-      </c>
-      <c r="B272" t="s">
-        <v>24</v>
-      </c>
-      <c r="C272" t="s">
-        <v>6</v>
-      </c>
       <c r="D272" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B273" t="s">
         <v>24</v>
@@ -5307,26 +6129,32 @@
         <v>6</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B274" t="s">
         <v>24</v>
       </c>
       <c r="C274" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B275" t="s">
         <v>24</v>
@@ -5335,12 +6163,15 @@
         <v>6</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B276" t="s">
         <v>24</v>
@@ -5349,12 +6180,15 @@
         <v>6</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B277" t="s">
         <v>24</v>
@@ -5363,12 +6197,15 @@
         <v>6</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B278" t="s">
         <v>24</v>
@@ -5377,12 +6214,15 @@
         <v>6</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B279" t="s">
         <v>24</v>
@@ -5393,10 +6233,13 @@
       <c r="D279" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B280" t="s">
         <v>24</v>
@@ -5405,26 +6248,32 @@
         <v>6</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B281" t="s">
         <v>24</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B282" t="s">
         <v>24</v>
@@ -5433,26 +6282,32 @@
         <v>6</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B283" t="s">
         <v>24</v>
       </c>
       <c r="C283" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B284" t="s">
         <v>24</v>
@@ -5463,10 +6318,13 @@
       <c r="D284" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B285" t="s">
         <v>24</v>
@@ -5475,12 +6333,15 @@
         <v>6</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B286" t="s">
         <v>24</v>
@@ -5489,12 +6350,15 @@
         <v>6</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B287" t="s">
         <v>24</v>
@@ -5503,12 +6367,15 @@
         <v>6</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B288" t="s">
         <v>24</v>
@@ -5517,12 +6384,15 @@
         <v>6</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B289" t="s">
         <v>24</v>
@@ -5531,12 +6401,15 @@
         <v>6</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B290" t="s">
         <v>24</v>
@@ -5545,26 +6418,32 @@
         <v>6</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B291" t="s">
         <v>24</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B292" t="s">
         <v>24</v>
@@ -5573,96 +6452,117 @@
         <v>6</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B293" t="s">
         <v>24</v>
       </c>
       <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>234</v>
+      </c>
+      <c r="B294" t="s">
+        <v>24</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>233</v>
+      </c>
+      <c r="B295" t="s">
+        <v>24</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>232</v>
+      </c>
+      <c r="B296" t="s">
+        <v>24</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>231</v>
+      </c>
+      <c r="B297" t="s">
+        <v>24</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>230</v>
+      </c>
+      <c r="B298" t="s">
+        <v>24</v>
+      </c>
+      <c r="C298" t="s">
         <v>5</v>
       </c>
-      <c r="D293" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>236</v>
-      </c>
-      <c r="B294" t="s">
-        <v>24</v>
-      </c>
-      <c r="C294" t="s">
-        <v>6</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>235</v>
-      </c>
-      <c r="B295" t="s">
-        <v>24</v>
-      </c>
-      <c r="C295" t="s">
-        <v>6</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>234</v>
-      </c>
-      <c r="B296" t="s">
-        <v>24</v>
-      </c>
-      <c r="C296" t="s">
-        <v>6</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>233</v>
-      </c>
-      <c r="B297" t="s">
-        <v>24</v>
-      </c>
-      <c r="C297" t="s">
-        <v>6</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>232</v>
-      </c>
-      <c r="B298" t="s">
-        <v>24</v>
-      </c>
-      <c r="C298" t="s">
-        <v>6</v>
-      </c>
       <c r="D298" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B299" t="s">
         <v>24</v>
@@ -5671,362 +6571,440 @@
         <v>6</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B300" t="s">
         <v>24</v>
       </c>
       <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>227</v>
+      </c>
+      <c r="B301" t="s">
+        <v>24</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>226</v>
+      </c>
+      <c r="B302" t="s">
+        <v>24</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>225</v>
+      </c>
+      <c r="B303" t="s">
+        <v>24</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>224</v>
+      </c>
+      <c r="B304" t="s">
+        <v>24</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>223</v>
+      </c>
+      <c r="B305" t="s">
+        <v>24</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>222</v>
+      </c>
+      <c r="B306" t="s">
+        <v>24</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>221</v>
+      </c>
+      <c r="B307" t="s">
+        <v>24</v>
+      </c>
+      <c r="C307" t="s">
         <v>5</v>
       </c>
-      <c r="D300" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>229</v>
-      </c>
-      <c r="B301" t="s">
-        <v>24</v>
-      </c>
-      <c r="C301" t="s">
-        <v>6</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>228</v>
-      </c>
-      <c r="B302" t="s">
-        <v>24</v>
-      </c>
-      <c r="C302" t="s">
-        <v>6</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>227</v>
-      </c>
-      <c r="B303" t="s">
-        <v>24</v>
-      </c>
-      <c r="C303" t="s">
-        <v>6</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>226</v>
-      </c>
-      <c r="B304" t="s">
-        <v>24</v>
-      </c>
-      <c r="C304" t="s">
-        <v>6</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>225</v>
-      </c>
-      <c r="B305" t="s">
-        <v>24</v>
-      </c>
-      <c r="C305" t="s">
-        <v>6</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>224</v>
-      </c>
-      <c r="B306" t="s">
-        <v>24</v>
-      </c>
-      <c r="C306" t="s">
-        <v>6</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>223</v>
-      </c>
-      <c r="B307" t="s">
-        <v>24</v>
-      </c>
-      <c r="C307" t="s">
-        <v>6</v>
-      </c>
       <c r="D307" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B308" t="s">
         <v>24</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B309" t="s">
         <v>24</v>
       </c>
       <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>218</v>
+      </c>
+      <c r="B310" t="s">
+        <v>24</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>217</v>
+      </c>
+      <c r="B311" t="s">
+        <v>24</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>216</v>
+      </c>
+      <c r="B312" t="s">
+        <v>24</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>215</v>
+      </c>
+      <c r="B313" t="s">
+        <v>24</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>214</v>
+      </c>
+      <c r="B314" t="s">
+        <v>24</v>
+      </c>
+      <c r="C314" t="s">
         <v>5</v>
       </c>
-      <c r="D309" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>220</v>
-      </c>
-      <c r="B310" t="s">
-        <v>24</v>
-      </c>
-      <c r="C310" t="s">
+      <c r="D314" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>213</v>
+      </c>
+      <c r="B315" t="s">
+        <v>24</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>212</v>
+      </c>
+      <c r="B316" t="s">
+        <v>24</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>211</v>
+      </c>
+      <c r="B317" t="s">
+        <v>24</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>210</v>
+      </c>
+      <c r="B318" t="s">
+        <v>24</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>209</v>
+      </c>
+      <c r="B319" t="s">
+        <v>24</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>208</v>
+      </c>
+      <c r="B320" t="s">
+        <v>24</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>207</v>
+      </c>
+      <c r="B321" t="s">
+        <v>24</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>206</v>
+      </c>
+      <c r="B322" t="s">
+        <v>24</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>205</v>
+      </c>
+      <c r="B323" t="s">
+        <v>24</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>204</v>
+      </c>
+      <c r="B324" t="s">
+        <v>24</v>
+      </c>
+      <c r="C324" t="s">
         <v>5</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>219</v>
-      </c>
-      <c r="B311" t="s">
-        <v>24</v>
-      </c>
-      <c r="C311" t="s">
-        <v>6</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>218</v>
-      </c>
-      <c r="B312" t="s">
-        <v>24</v>
-      </c>
-      <c r="C312" t="s">
-        <v>6</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>217</v>
-      </c>
-      <c r="B313" t="s">
-        <v>24</v>
-      </c>
-      <c r="C313" t="s">
-        <v>6</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>216</v>
-      </c>
-      <c r="B314" t="s">
-        <v>24</v>
-      </c>
-      <c r="C314" t="s">
-        <v>6</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>215</v>
-      </c>
-      <c r="B315" t="s">
-        <v>24</v>
-      </c>
-      <c r="C315" t="s">
-        <v>6</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>214</v>
-      </c>
-      <c r="B316" t="s">
-        <v>24</v>
-      </c>
-      <c r="C316" t="s">
-        <v>5</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>213</v>
-      </c>
-      <c r="B317" t="s">
-        <v>24</v>
-      </c>
-      <c r="C317" t="s">
-        <v>6</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>212</v>
-      </c>
-      <c r="B318" t="s">
-        <v>24</v>
-      </c>
-      <c r="C318" t="s">
-        <v>6</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>211</v>
-      </c>
-      <c r="B319" t="s">
-        <v>24</v>
-      </c>
-      <c r="C319" t="s">
-        <v>6</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>210</v>
-      </c>
-      <c r="B320" t="s">
-        <v>24</v>
-      </c>
-      <c r="C320" t="s">
-        <v>6</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>209</v>
-      </c>
-      <c r="B321" t="s">
-        <v>24</v>
-      </c>
-      <c r="C321" t="s">
-        <v>6</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>208</v>
-      </c>
-      <c r="B322" t="s">
-        <v>24</v>
-      </c>
-      <c r="C322" t="s">
-        <v>6</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>207</v>
-      </c>
-      <c r="B323" t="s">
-        <v>24</v>
-      </c>
-      <c r="C323" t="s">
-        <v>6</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>206</v>
-      </c>
-      <c r="B324" t="s">
-        <v>24</v>
-      </c>
-      <c r="C324" t="s">
-        <v>6</v>
-      </c>
       <c r="D324" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B325" t="s">
         <v>24</v>
@@ -6037,24 +7015,30 @@
       <c r="D325" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B326" t="s">
         <v>24</v>
       </c>
       <c r="C326" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B327" t="s">
         <v>24</v>
@@ -6063,12 +7047,15 @@
         <v>6</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B328" t="s">
         <v>24</v>
@@ -6077,12 +7064,15 @@
         <v>6</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B329" t="s">
         <v>24</v>
@@ -6093,10 +7083,13 @@
       <c r="D329" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B330" t="s">
         <v>24</v>
@@ -6105,12 +7098,15 @@
         <v>6</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B331" t="s">
         <v>24</v>
@@ -6119,68 +7115,83 @@
         <v>6</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B332" t="s">
         <v>24</v>
       </c>
       <c r="C332" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B333" t="s">
         <v>24</v>
       </c>
       <c r="C333" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B334" t="s">
         <v>24</v>
       </c>
       <c r="C334" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B335" t="s">
         <v>24</v>
       </c>
       <c r="C335" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B336" t="s">
         <v>24</v>
@@ -6189,12 +7200,15 @@
         <v>6</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B337" t="s">
         <v>24</v>
@@ -6203,12 +7217,15 @@
         <v>6</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B338" t="s">
         <v>24</v>
@@ -6217,12 +7234,15 @@
         <v>6</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B339" t="s">
         <v>24</v>
@@ -6231,40 +7251,49 @@
         <v>6</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B340" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C340" t="s">
         <v>6</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B341" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C341" t="s">
         <v>6</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B342" t="s">
         <v>31</v>
@@ -6273,12 +7302,15 @@
         <v>6</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B343" t="s">
         <v>31</v>
@@ -6287,12 +7319,15 @@
         <v>6</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B344" t="s">
         <v>31</v>
@@ -6301,12 +7336,15 @@
         <v>6</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B345" t="s">
         <v>31</v>
@@ -6315,12 +7353,15 @@
         <v>6</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B346" t="s">
         <v>31</v>
@@ -6329,12 +7370,15 @@
         <v>6</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B347" t="s">
         <v>31</v>
@@ -6343,12 +7387,15 @@
         <v>6</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B348" t="s">
         <v>31</v>
@@ -6357,26 +7404,32 @@
         <v>6</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B349" t="s">
         <v>31</v>
       </c>
       <c r="C349" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B350" t="s">
         <v>31</v>
@@ -6385,26 +7438,32 @@
         <v>6</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B351" t="s">
         <v>31</v>
       </c>
       <c r="C351" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B352" t="s">
         <v>31</v>
@@ -6413,12 +7472,15 @@
         <v>6</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B353" t="s">
         <v>31</v>
@@ -6427,7 +7489,10 @@
         <v>6</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
